--- a/evaluation/results/hybrid/pca/LOF/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4868913857677903</v>
+        <v>0.6123595505617978</v>
       </c>
       <c r="C2">
-        <v>0.2941176470588235</v>
+        <v>0.5634249471458774</v>
       </c>
       <c r="D2">
-        <v>0.01872659176029963</v>
+        <v>0.99812734082397</v>
       </c>
       <c r="E2">
-        <v>0.0352112676056338</v>
+        <v>0.7202702702702702</v>
       </c>
       <c r="F2">
-        <v>0.02304147465437788</v>
+        <v>0.8646982478909799</v>
       </c>
       <c r="G2">
-        <v>0.01942618051404662</v>
+        <v>0.9693620593172916</v>
       </c>
       <c r="H2">
-        <v>0.4868913857677902</v>
+        <v>0.7892697330583962</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>413</v>
       </c>
       <c r="K2">
-        <v>510</v>
+        <v>121</v>
       </c>
       <c r="L2">
-        <v>524</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4932301740812379</v>
+        <v>0.9918032786885246</v>
       </c>
       <c r="C2">
-        <v>0.9550561797752809</v>
+        <v>0.2265917602996255</v>
       </c>
       <c r="D2">
-        <v>0.6505102040816326</v>
+        <v>0.3689024390243902</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.2941176470588235</v>
+        <v>0.5634249471458774</v>
       </c>
       <c r="C3">
-        <v>0.01872659176029963</v>
+        <v>0.99812734082397</v>
       </c>
       <c r="D3">
-        <v>0.0352112676056338</v>
+        <v>0.7202702702702702</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4868913857677903</v>
+        <v>0.6123595505617978</v>
       </c>
       <c r="C4">
-        <v>0.4868913857677903</v>
+        <v>0.6123595505617978</v>
       </c>
       <c r="D4">
-        <v>0.4868913857677903</v>
+        <v>0.6123595505617978</v>
       </c>
       <c r="E4">
-        <v>0.4868913857677903</v>
+        <v>0.6123595505617978</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.3936739105700308</v>
+        <v>0.777614112917201</v>
       </c>
       <c r="C5">
-        <v>0.4868913857677903</v>
+        <v>0.6123595505617978</v>
       </c>
       <c r="D5">
-        <v>0.3428607358436332</v>
+        <v>0.5445863546473302</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.3936739105700307</v>
+        <v>0.7776141129172011</v>
       </c>
       <c r="C6">
-        <v>0.4868913857677903</v>
+        <v>0.6123595505617978</v>
       </c>
       <c r="D6">
-        <v>0.3428607358436332</v>
+        <v>0.5445863546473303</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>510</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
